--- a/biology/Histoire de la zoologie et de la botanique/Edward_William_Nelson/Edward_William_Nelson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_William_Nelson/Edward_William_Nelson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward William Nelson est un naturaliste et un éthologue américain, né le 8 mai 1855 et mort le 19 mai 1934.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1877, Nelson rejoint le United States Army Signal Corps chargé de tester des moyens de communication en temps de guerre. Spencer Fullerton Baird (1823-1887) est chargé de sélection des officiers pour les stations de communications, choisit des hommes ayant une formation scientifique et qui était apte à étudier la faune et la flore locales. Baird envoie Nelson à St. Michael en Alaska.
 Nelson est le naturaliste à bord de l’USRC Corwin qui part dans l’île Wrangel en 1881 à la recherche du USS Jeannette. Nelson publie la description de ses observations dans le Report upon Natural History Collections Made in Alaska between the Years 1877-1881 (1887). Il fait paraître aussi ses observations ethnologiques dans The Eskimo about Bering Strait (1900).
